--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_30.07.24v_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2486 +505,2961 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731411141.0358808</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731411142.2335272</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731411141.0358808.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731411142.2335272.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.68</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>291.12</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731411143.5391517</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731411144.2427657</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731411143.5391517.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731411144.2427657.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>291.05</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>291.17</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731411144.9282193</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731411147.08997</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731411144.9282193.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731411147.08997.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>291.01</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>290.67</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.339999999999975</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731411147.3724082</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731411147.3724082.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731411147.3724082.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>290.22</v>
       </c>
-      <c r="J6" t="n">
-        <v>290.22</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.82000000000005</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731411151.3972766</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731411153.346202</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731411151.3972766.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731411153.346202.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>132.53</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>132.43</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731411157.2858825</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731411157.4650726</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731411157.2858825.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731411157.4650726.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6795</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6803</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731411158.0290232</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731411158.126817</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731411158.0290232.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731411158.126817.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6794.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6800</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731411158.3614554</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731411159.8521366</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731411158.3614554.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731411159.8521366.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6803</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6804.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731411160.669658</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731411161.9993954</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731411160.669658.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731411161.9993954.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6801</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6807.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>6.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731411165.9292774</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731411168.1915061</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731411165.9292774.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731411168.1915061.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>511.3</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>512.05</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.7499999999999432</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731411169.4725351</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731411169.4725351.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731411169.4725351.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>511.75</v>
       </c>
-      <c r="J13" t="n">
-        <v>511.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>511.1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.6499999999999773</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731411172.238853</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731411173.2621567</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731411172.238853.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731411173.2621567.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>1045.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1047</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731411173.6809776</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731411174.8271341</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731411173.6809776.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731411174.8271341.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1048</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1046.2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731411175.3210812</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731411175.7635984</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731411175.3210812.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731411175.7635984.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1046</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1047.2</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731411176.3178782</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731411177.636012</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731411176.3178782.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731411177.636012.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1044.6</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1044.4</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.1999999999998181</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731411178.1751812</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731411178.1751812.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731411178.1751812.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1046.4</v>
       </c>
-      <c r="J18" t="n">
-        <v>1046.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>1047.2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.7999999999999545</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731411179.4106047</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731411180.656313</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731411179.4106047.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731411180.656313.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>127.34</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>127.46</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1199999999999903</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731411181.0420735</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731411181.9628987</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731411181.0420735.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731411181.9628987.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>127.46</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>127.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.04000000000000625</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731411184.452786</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731411184.452786.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731411184.452786.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.36</v>
       </c>
-      <c r="J21" t="n">
-        <v>127.36</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="L21" t="n">
+        <v>127.38</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731411187.0006561</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731411187.3170774</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731411187.0006561.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731411187.3170774.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>166.3</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>166.08</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731411187.5052793</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731411188.4946682</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731411187.5052793.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731411188.4946682.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>166.3</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>166.24</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731411189.7841167</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731411189.7841167.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731411189.7841167.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>166.08</v>
       </c>
-      <c r="J24" t="n">
-        <v>166.08</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+      <c r="L24" t="n">
+        <v>165.68</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.4000000000000057</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731411191.2276454</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731411191.891801</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731411191.2276454.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731411191.891801.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>51.675</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>51.665</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731411195.273445</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731411195.273445.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731411195.273445.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>51.5</v>
       </c>
-      <c r="J26" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>51.37</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.1300000000000026</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731411199.666981</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731411201.5778165</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731411199.666981.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731411201.5778165.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1421.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1421.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731411202.081095</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731411202.081095.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731411202.081095.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1420.4</v>
       </c>
-      <c r="J28" t="n">
-        <v>1420.4</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
+      <c r="L28" t="n">
+        <v>1420</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.4000000000000909</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731411205.8940878</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731411206.0542715</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731411205.8940878.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731411206.0542715.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>60.44</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>60.53</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731411207.8376358</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731411208.6760523</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731411207.8376358.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731411208.6760523.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>60.67</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>60.56</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731411209.6251776</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731411210.563843</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731411209.6251776.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731411210.563843.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>60.49</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>60.58</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.08999999999999631</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731411211.4328966</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731411211.4328966.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731411211.4328966.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>60.44</v>
       </c>
-      <c r="J32" t="n">
-        <v>60.44</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
+      <c r="L32" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.03999999999999915</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731411215.402457</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731411216.9161687</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731411215.402457.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731411216.9161687.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>141.24</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>141.36</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731411217.7054949</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731411217.7054949.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731411217.7054949.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>140.98</v>
       </c>
-      <c r="J34" t="n">
-        <v>140.98</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
+      <c r="L34" t="n">
+        <v>140.78</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731411221.9781947</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731411222.5245864</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731411221.9781947.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731411222.5245864.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>54.16</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>54.01</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731411223.515336</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731411225.1687052</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731411223.515336.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731411225.1687052.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>53.93</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>53.92</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731411227.2670991</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731411227.2670991.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731411227.2670991.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>53.57</v>
       </c>
-      <c r="J37" t="n">
-        <v>53.57</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
+      <c r="L37" t="n">
+        <v>53.51</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731411228.1495862</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731411229.328372</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731411228.1495862.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731411229.328372.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>375.33</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>374.76</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.5699999999999932</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731411231.2151709</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731411231.9267993</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731411231.2151709.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731411231.9267993.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>374.55</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>375.02</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.4699999999999704</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731411232.9440396</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731411232.9440396.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731411232.9440396.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>374</v>
       </c>
-      <c r="J40" t="n">
-        <v>374</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
+      <c r="L40" t="n">
+        <v>371.92</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-2.079999999999984</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731411237.327184</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731411237.8584516</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MXI1731411237.327184.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MXI1731411237.8584516.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>3024.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>3021.75</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>2.849999999999909</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731411240.793842</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731411240.8839276</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MXI1731411240.793842.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MXI1731411240.8839276.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>3027</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>3019.8</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>7.199999999999818</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731411240.89886</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731411240.89886.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731411240.89886.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>3019.8</v>
       </c>
-      <c r="J43" t="n">
-        <v>3019.8</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>3018.15</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-1.650000000000091</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731411244.2871983</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731411246.0621376</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731411244.2871983.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731411246.0621376.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>34.56</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>34.54</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731411246.8967779</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731411247.8878906</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731411246.8967779.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731411247.8878906.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>34.595</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>34.525</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731411248.7986867</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731411250.3751013</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731411248.7986867.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731411250.3751013.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>34.495</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>34.485</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731411253.3595014</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731411254.0052319</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411253.3595014.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411254.0052319.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>640</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>640.7</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.7000000000000455</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731411254.0201907</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731411254.1597776</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411254.0201907.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411254.1597776.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>640.7</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>640.3</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731411254.2246451</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731411254.5539112</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411254.2246451.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411254.5539112.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>640.1</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>640.5</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731411255.066186</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731411256.0756302</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411255.066186.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411256.0756302.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>640</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>640.3</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.2999999999999545</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731411256.2244718</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731411256.4229028</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411256.2244718.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411256.4229028.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>640.5</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>640.1</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731411256.463766</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731411257.1242502</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411256.463766.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411257.1242502.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>640.6</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>640.1</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731411257.1649756</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731411257.2706044</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411257.1649756.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/TATN1731411257.2706044.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>640</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>640.5</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731411258.2460575</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731411258.2460575.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731411258.2460575.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>640.6</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>640.6</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2984,7 +3474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,6 +3503,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3029,6 +3529,12 @@
       <c r="D2" t="n">
         <v>0.4000000000000057</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3037,13 +3543,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.600000000000136</v>
+        <v>3.800000000000182</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9200000000000272</v>
+        <v>0.7600000000000364</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3053,13 +3565,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2899999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07249999999999979</v>
+        <v>0.0625</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -3069,13 +3587,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3400000000000318</v>
+        <v>-0.4800000000000182</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08500000000000796</v>
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="6">
@@ -3093,6 +3617,12 @@
       <c r="D6" t="n">
         <v>4.625</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3101,13 +3631,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1400000000000006</v>
+        <v>0.07999999999999829</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04666666666666686</v>
+        <v>0.0266666666666661</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -3125,6 +3661,12 @@
       <c r="D8" t="n">
         <v>0.01333333333333305</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3133,13 +3675,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2800000000000011</v>
+        <v>-0.1200000000000045</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09333333333333371</v>
+        <v>-0.04000000000000151</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.06999999999999998</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
@@ -3149,13 +3697,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.04999999999973</v>
+        <v>8.399999999999636</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>3.349999999999909</v>
+        <v>2.799999999999879</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
@@ -3165,13 +3719,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07999999999998408</v>
+        <v>0.0999999999999801</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02666666666666136</v>
+        <v>0.0333333333333267</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
@@ -3181,13 +3741,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.039999999999964</v>
+        <v>-1.04000000000002</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3466666666666545</v>
+        <v>-0.3466666666666735</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.2799999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="13">
@@ -3197,13 +3763,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00999999999999801</v>
+        <v>-0.1200000000000045</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004999999999999005</v>
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="14">
@@ -3213,13 +3785,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.7499999999999432</v>
+        <v>-1.39999999999992</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3749999999999716</v>
+        <v>-0.6999999999999602</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="15">
@@ -3229,13 +3807,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2999999999999545</v>
+        <v>0.09999999999990905</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="16">
@@ -3245,13 +3829,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1200000000000045</v>
+        <v>-0.3199999999999932</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.06000000000000227</v>
+        <v>-0.1599999999999966</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="17">
@@ -3269,6 +3859,12 @@
       <c r="D17" t="n">
         <v>-0.09999999999999432</v>
       </c>
+      <c r="E17" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3283,6 +3879,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
